--- a/w.xlsx
+++ b/w.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d8f3b2df7dd2c83/UTFPR/ACV - Cassia/Projeto ACV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{990576AB-4CC3-4357-BDC5-DE46466F404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08595F56-4D1B-41EF-AE1C-ADDF90C724FB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8F8A2093-F61B-4D75-A500-483E4DCA50B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915758D1-28F2-4E4D-A624-99554FD9A0B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF0B58A4-99DC-47F5-A5A5-CC85722650C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D3648BE-9D43-4100-9CAA-C7BFFD79F0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>vet w</t>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Impacto1</t>
+  </si>
+  <si>
+    <t>Impacto2</t>
+  </si>
+  <si>
+    <t>peso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,10 +100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,37 +398,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61071C-7D54-4C2C-9D45-DBAD58574260}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411ED364-BEFB-45E5-9900-30B53AA6B843}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/w.xlsx
+++ b/w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d8f3b2df7dd2c83/UTFPR/ACV - Cassia/Projeto ACV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{8F8A2093-F61B-4D75-A500-483E4DCA50B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915758D1-28F2-4E4D-A624-99554FD9A0B8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8F8A2093-F61B-4D75-A500-483E4DCA50B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B604A22-41FC-4200-99A1-F5DDA128424E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D3648BE-9D43-4100-9CAA-C7BFFD79F0D6}"/>
   </bookViews>
@@ -100,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411ED364-BEFB-45E5-9900-30B53AA6B843}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +435,11 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
